--- a/ipl-2020-21-1210595/rajasthan royals vs kolkata knight riders 12th match 1216504/Bowling2.xlsx
+++ b/ipl-2020-21-1210595/rajasthan royals vs kolkata knight riders 12th match 1216504/Bowling2.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -592,42 +592,77 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <v>Riyan Parag</v>
+      </c>
+      <c r="B7" t="str">
+        <v>1</v>
+      </c>
+      <c r="C7" t="str">
+        <v>0</v>
+      </c>
+      <c r="D7" t="str">
+        <v>14</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>14.00</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0</v>
+      </c>
+      <c r="H7" t="str">
+        <v>0</v>
+      </c>
+      <c r="I7" t="str">
+        <v>1</v>
+      </c>
+      <c r="J7" t="str">
+        <v>0</v>
+      </c>
+      <c r="K7" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
         <v>Rahul Tewatia</v>
       </c>
-      <c r="B7" t="str">
-        <v>1</v>
-      </c>
-      <c r="C7" t="str">
-        <v>0</v>
-      </c>
-      <c r="D7" t="str">
+      <c r="B8" t="str">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <v>0</v>
+      </c>
+      <c r="D8" t="str">
         <v>6</v>
       </c>
-      <c r="E7" t="str">
-        <v>1</v>
-      </c>
-      <c r="F7" t="str">
+      <c r="E8" t="str">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
         <v>6.00</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G8" t="str">
         <v>3</v>
       </c>
-      <c r="H7" t="str">
-        <v>1</v>
-      </c>
-      <c r="I7" t="str">
-        <v>0</v>
-      </c>
-      <c r="J7" t="str">
-        <v>0</v>
-      </c>
-      <c r="K7" t="str">
+      <c r="H8" t="str">
+        <v>1</v>
+      </c>
+      <c r="I8" t="str">
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
+        <v>0</v>
+      </c>
+      <c r="K8" t="str">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
   </ignoredErrors>
 </worksheet>
 </file>